--- a/tl/S00030.MES.BIN.xlsx
+++ b/tl/S00030.MES.BIN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDDAEC9-76A1-4942-B3F8-CC8DB2BB7ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3FA97E-C165-4B5E-929C-EA5A5596F460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="66">
   <si>
     <t>Status</t>
   </si>
@@ -92,15 +92,15 @@
     <t>15</t>
   </si>
   <si>
+    <t>Touya</t>
+  </si>
+  <si>
     <t>Ah...</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>Touya</t>
-  </si>
-  <si>
     <t>It disappears into the sea of feet of the other people.</t>
   </si>
   <si>
@@ -125,18 +125,18 @@
     <t>25</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Female Voice</t>
+  </si>
+  <si>
     <t>"Here."</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Female Voice</t>
-  </si>
-  <si>
     <t>Something is offered to me.</t>
   </si>
   <si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>It seemed like Misaki-san was the last conscience of the school, but it looks like that wasn't the case.</t>
-  </si>
-  <si>
-    <t>53</t>
   </si>
 </sst>
 </file>
@@ -635,11 +632,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -913,10 +908,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
@@ -925,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>9</v>
@@ -942,13 +937,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>9</v>
@@ -1073,10 +1068,10 @@
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
@@ -1085,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>9</v>
@@ -1102,13 +1097,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>9</v>
@@ -1201,10 +1196,10 @@
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
@@ -1233,10 +1228,10 @@
         <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
@@ -1361,10 +1356,10 @@
         <v>55</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
@@ -1393,10 +1388,10 @@
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>9</v>
@@ -1425,10 +1420,10 @@
         <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
@@ -1510,38 +1505,6 @@
         <v>9</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/tl/S00030.MES.BIN.xlsx
+++ b/tl/S00030.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3FA97E-C165-4B5E-929C-EA5A5596F460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E12FAD-E695-4B1C-AA47-16EBF106F77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="11310" windowWidth="48240" windowHeight="19545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="9810" windowWidth="45900" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00030.MES.BIN" sheetId="1" r:id="rId1"/>

--- a/tl/S00030.MES.BIN.xlsx
+++ b/tl/S00030.MES.BIN.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E12FAD-E695-4B1C-AA47-16EBF106F77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365C0C93-524B-4338-9542-E167BEF3C69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="9810" windowWidth="45900" windowHeight="19845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="54585" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S00030.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="65">
   <si>
     <t>Status</t>
   </si>
@@ -50,43 +50,43 @@
     <t>1</t>
   </si>
   <si>
-    <t>I ran into the rush hour of people going home tonight.</t>
+    <t>I find myself caught in the rush hour traffic again on my way home tonight.</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Even though winter is just around the corner, it's so hot inside the train that I'm sweating, and when I finally get out of the train, I can't even describe the sense of relief.</t>
+    <t>Even though winter is just around the corner, the train was so hot and stuffy with the heaters turned on that I'm sweating, and the sense of relief I feel when getting off the train is indescribable.</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>...It feels so refreshing...</t>
+    <t>…It's so refreshing…....</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>I stand there for a moment, taking a deep breath, then suddenly-</t>
+    <t>As I think this, I stop for a moment and take a deep breath when,</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>BOOM...!</t>
+    <t>Bam…!</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>I get pushed back by the crowd of people coming out from the ticket gate.</t>
+    <t>As I pass through the ticket gate, I'm pushed forward by a wave of people spilling out from behind me.</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>My train pass slips out of my hand in the process.</t>
+    <t>At the same time, my commuter pass slips out of my hand.</t>
   </si>
   <si>
     <t>15</t>
@@ -95,31 +95,31 @@
     <t>Touya</t>
   </si>
   <si>
-    <t>Ah...</t>
+    <t>Ah…</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>It disappears into the sea of feet of the other people.</t>
+    <t>It disappears into the crowd of passing feet.</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>...Ugh, this isn't good......</t>
+    <t>…This isn't good…....</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>Crossing through the flow of people, I search for my briefcase on the dimly lit ground.</t>
+    <t>Cutting through the flow of people, I search the dimly lit ground for my pass case.</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>...Then I hear,</t>
+    <t>…At that moment,</t>
   </si>
   <si>
     <t>25</t>
@@ -131,88 +131,85 @@
     <t>Female Voice</t>
   </si>
   <si>
-    <t>"Here."</t>
+    <t>Here.</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>Something is offered to me.</t>
+    <t>Something is offered right in front of my eyes.</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>...It's a train pass.</t>
+    <t>…It's my commuter pass.</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>It has my name on it.</t>
+    <t>My name is written on it.</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>Thank you......</t>
+    <t>Thank you…...</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>As I receive it, I look up and see a girl standing there.</t>
+    <t>As I receive it and lift my head, there is a single girl standing there.</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>Judging by her uniform, she seemed to be a student from Kagerouzaki Academy.</t>
+    <t>Judging from her uniform, she appears to be a student at Hotarugasaki Academy.</t>
   </si>
   <si>
     <t>39</t>
   </si>
   <si>
-    <t>Could she be my distant junior?</t>
+    <t>So she's my distant kohai, huh?</t>
   </si>
   <si>
     <t>41</t>
   </si>
   <si>
-    <t>Still, she went out of her way to pick it up for me...</t>
+    <t>Even so, she went out of her way to pick it up for me….</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>"Thanks a lot. I really appreciate it."</t>
+    <t>Thank you so much. You saved me.</t>
   </si>
   <si>
     <t>45</t>
   </si>
   <si>
-    <t>It's no big deal. Well, see you.</t>
-  </si>
-  <si>
-    <t>No, it's no problem. Well then.</t>
+    <t>No, it's fine. See you.</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>The girl smiles sweetly and walks away as if she was spinning around.</t>
+    <t>The girl smiles and turns away, walking off with a spring in her step.</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>I guess there are still such good girls at my alma mater...</t>
+    <t>There are still good girls like her at my alma mater….</t>
   </si>
   <si>
     <t>51</t>
   </si>
   <si>
-    <t>It seemed like Misaki-san was the last conscience of the school, but it looks like that wasn't the case.</t>
+    <t>Misaki-san thought that she was the last beacon of hope at that school, but it seems that's not the case after all.</t>
   </si>
 </sst>
 </file>
@@ -634,7 +631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1397,10 +1396,10 @@
         <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>9</v>
@@ -1417,22 +1416,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>9</v>
@@ -1449,22 +1448,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>9</v>
@@ -1481,22 +1480,22 @@
         <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>9</v>
